--- a/population_pyramid/Table 110-01001_female.xlsx
+++ b/population_pyramid/Table 110-01001_female.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="99">
   <si>
     <r>
       <rPr>
@@ -292,10 +292,34 @@
     <t>2023</t>
   </si>
   <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="000000"/>
+        <sz val="11.25"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">Mid-year </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="30787e"/>
+        <sz val="11.25"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>p</t>
+    </r>
+  </si>
+  <si>
     <t>Note(s):</t>
   </si>
   <si>
     <t>The figures from 1961 to 1995 are compiled based on the "extended de facto" method and those from 1996 onwards are compiled based on the "resident population" method.</t>
+  </si>
+  <si>
+    <t>p Provisional figure</t>
   </si>
   <si>
     <t>Source:</t>
@@ -379,19 +403,18 @@
     </r>
   </si>
   <si>
-    <t>Release Date: 20 February, 2024</t>
+    <t>Release Date: 15 August, 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-    <numFmt numFmtId="60" formatCode="# ##0.0;-# ##0.0;0.0"/>
-    <numFmt numFmtId="61" formatCode="##0.0;-##0.0;0.0"/>
-    <numFmt numFmtId="62" formatCode="#0.0;-#0.0;0.0"/>
-    <numFmt numFmtId="63" formatCode="0.0;-0.0;0.0"/>
+    <numFmt numFmtId="60" formatCode="##0.0;-##0.0;0.0"/>
+    <numFmt numFmtId="61" formatCode="#0.0;-#0.0;0.0"/>
+    <numFmt numFmtId="62" formatCode="0.0;-0.0;0.0"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -484,13 +507,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
+    <xf numFmtId="60" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment horizontal="right" vertical="center" wrapText="true"/>
+    </xf>
     <xf numFmtId="61" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment horizontal="right" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="62" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment horizontal="right" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="63" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment horizontal="right" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -824,7 +847,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1147"/>
+  <dimension ref="A1:E1166"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13741,80 +13764,293 @@
         <v>146.3</v>
       </c>
     </row>
-    <row r="1140" ht="21" customHeight="1">
-      <c r="A1140" s="2" t="s">
+    <row r="1140" ht="21.75" customHeight="1">
+      <c r="A1140" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1140" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1140" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1140" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1140" s="8">
+        <v>91.4</v>
+      </c>
+    </row>
+    <row r="1141" ht="21.75" customHeight="1">
+      <c r="A1141" s="6"/>
+      <c r="B1141" s="6"/>
+      <c r="C1141" s="6"/>
+      <c r="D1141" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1141" s="7">
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="1142" ht="21.75" customHeight="1">
+      <c r="A1142" s="6"/>
+      <c r="B1142" s="6"/>
+      <c r="C1142" s="6"/>
+      <c r="D1142" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1142" s="7">
+        <v>147.1</v>
+      </c>
+    </row>
+    <row r="1143" ht="21.75" customHeight="1">
+      <c r="A1143" s="6"/>
+      <c r="B1143" s="6"/>
+      <c r="C1143" s="6"/>
+      <c r="D1143" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1143" s="7">
+        <v>137.1</v>
+      </c>
+    </row>
+    <row r="1144" ht="21.75" customHeight="1">
+      <c r="A1144" s="6"/>
+      <c r="B1144" s="6"/>
+      <c r="C1144" s="6"/>
+      <c r="D1144" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1144" s="7">
+        <v>149.3</v>
+      </c>
+    </row>
+    <row r="1145" ht="21.75" customHeight="1">
+      <c r="A1145" s="6"/>
+      <c r="B1145" s="6"/>
+      <c r="C1145" s="6"/>
+      <c r="D1145" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1145" s="7">
+        <v>216.1</v>
+      </c>
+    </row>
+    <row r="1146" ht="21.75" customHeight="1">
+      <c r="A1146" s="6"/>
+      <c r="B1146" s="6"/>
+      <c r="C1146" s="6"/>
+      <c r="D1146" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1146" s="7">
+        <v>283.8</v>
+      </c>
+    </row>
+    <row r="1147" ht="21.75" customHeight="1">
+      <c r="A1147" s="6"/>
+      <c r="B1147" s="6"/>
+      <c r="C1147" s="6"/>
+      <c r="D1147" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1147" s="7">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1148" ht="21.75" customHeight="1">
+      <c r="A1148" s="6"/>
+      <c r="B1148" s="6"/>
+      <c r="C1148" s="6"/>
+      <c r="D1148" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1148" s="7">
+        <v>364.6</v>
+      </c>
+    </row>
+    <row r="1149" ht="21.75" customHeight="1">
+      <c r="A1149" s="6"/>
+      <c r="B1149" s="6"/>
+      <c r="C1149" s="6"/>
+      <c r="D1149" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1149" s="7">
+        <v>331.8</v>
+      </c>
+    </row>
+    <row r="1150" ht="21.75" customHeight="1">
+      <c r="A1150" s="6"/>
+      <c r="B1150" s="6"/>
+      <c r="C1150" s="6"/>
+      <c r="D1150" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1150" s="7">
+        <v>344.3</v>
+      </c>
+    </row>
+    <row r="1151" ht="21.75" customHeight="1">
+      <c r="A1151" s="6"/>
+      <c r="B1151" s="6"/>
+      <c r="C1151" s="6"/>
+      <c r="D1151" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1151" s="7">
+        <v>323.6</v>
+      </c>
+    </row>
+    <row r="1152" ht="21.75" customHeight="1">
+      <c r="A1152" s="6"/>
+      <c r="B1152" s="6"/>
+      <c r="C1152" s="6"/>
+      <c r="D1152" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1152" s="7">
+        <v>346.4</v>
+      </c>
+    </row>
+    <row r="1153" ht="21.75" customHeight="1">
+      <c r="A1153" s="6"/>
+      <c r="B1153" s="6"/>
+      <c r="C1153" s="6"/>
+      <c r="D1153" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1153" s="7">
+        <v>300.2</v>
+      </c>
+    </row>
+    <row r="1154" ht="21.75" customHeight="1">
+      <c r="A1154" s="6"/>
+      <c r="B1154" s="6"/>
+      <c r="C1154" s="6"/>
+      <c r="D1154" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1154" s="7">
+        <v>228.8</v>
+      </c>
+    </row>
+    <row r="1155" ht="21.75" customHeight="1">
+      <c r="A1155" s="6"/>
+      <c r="B1155" s="6"/>
+      <c r="C1155" s="6"/>
+      <c r="D1155" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1155" s="7">
+        <v>150.4</v>
+      </c>
+    </row>
+    <row r="1156" ht="21.75" customHeight="1">
+      <c r="A1156" s="6"/>
+      <c r="B1156" s="6"/>
+      <c r="C1156" s="6"/>
+      <c r="D1156" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1156" s="8">
+        <v>81.6</v>
+      </c>
+    </row>
+    <row r="1157" ht="21.75" customHeight="1">
+      <c r="A1157" s="6"/>
+      <c r="B1157" s="6"/>
+      <c r="C1157" s="6"/>
+      <c r="D1157" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1157" s="7">
+        <v>150.1</v>
+      </c>
+    </row>
+    <row r="1158" ht="21" customHeight="1">
+      <c r="A1158" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1140" s="2"/>
-      <c r="C1140" s="2"/>
-      <c r="D1140" s="2"/>
-      <c r="E1140" s="2"/>
-    </row>
-    <row r="1141" ht="21" customHeight="1">
-      <c r="A1141" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1141" s="2"/>
-      <c r="C1141" s="2"/>
-      <c r="D1141" s="2"/>
-      <c r="E1141" s="2"/>
-    </row>
-    <row r="1142" ht="21" customHeight="1">
-      <c r="A1142" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1142" s="2"/>
-      <c r="C1142" s="2"/>
-      <c r="D1142" s="2"/>
-      <c r="E1142" s="2"/>
-    </row>
-    <row r="1143" ht="21" customHeight="1">
-      <c r="A1143" s="2" t="s">
+      <c r="B1158" s="2"/>
+      <c r="C1158" s="2"/>
+      <c r="D1158" s="2"/>
+      <c r="E1158" s="2"/>
+    </row>
+    <row r="1159" ht="21" customHeight="1">
+      <c r="A1159" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1159" s="2"/>
+      <c r="C1159" s="2"/>
+      <c r="D1159" s="2"/>
+      <c r="E1159" s="2"/>
+    </row>
+    <row r="1160" ht="21" customHeight="1">
+      <c r="A1160" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1160" s="2"/>
+      <c r="C1160" s="2"/>
+      <c r="D1160" s="2"/>
+      <c r="E1160" s="2"/>
+    </row>
+    <row r="1161" ht="21" customHeight="1">
+      <c r="A1161" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1161" s="2"/>
+      <c r="C1161" s="2"/>
+      <c r="D1161" s="2"/>
+      <c r="E1161" s="2"/>
+    </row>
+    <row r="1162" ht="21" customHeight="1">
+      <c r="A1162" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1143" s="2"/>
-      <c r="C1143" s="2"/>
-      <c r="D1143" s="2"/>
-      <c r="E1143" s="2"/>
-    </row>
-    <row r="1144" ht="21" customHeight="1">
-      <c r="A1144" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1144" s="2"/>
-      <c r="C1144" s="2"/>
-      <c r="D1144" s="2"/>
-      <c r="E1144" s="2"/>
-    </row>
-    <row r="1145" ht="72" customHeight="1">
-      <c r="A1145" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1145" s="2"/>
-      <c r="C1145" s="2"/>
-      <c r="D1145" s="2"/>
-      <c r="E1145" s="2"/>
-    </row>
-    <row r="1146" ht="21" customHeight="1">
-      <c r="A1146" s="2" t="s">
+      <c r="B1162" s="2"/>
+      <c r="C1162" s="2"/>
+      <c r="D1162" s="2"/>
+      <c r="E1162" s="2"/>
+    </row>
+    <row r="1163" ht="21" customHeight="1">
+      <c r="A1163" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1163" s="2"/>
+      <c r="C1163" s="2"/>
+      <c r="D1163" s="2"/>
+      <c r="E1163" s="2"/>
+    </row>
+    <row r="1164" ht="72" customHeight="1">
+      <c r="A1164" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1164" s="2"/>
+      <c r="C1164" s="2"/>
+      <c r="D1164" s="2"/>
+      <c r="E1164" s="2"/>
+    </row>
+    <row r="1165" ht="21" customHeight="1">
+      <c r="A1165" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1146" s="2"/>
-      <c r="C1146" s="2"/>
-      <c r="D1146" s="2"/>
-      <c r="E1146" s="2"/>
-    </row>
-    <row r="1147" ht="21" customHeight="1">
-      <c r="A1147" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1147" s="2"/>
-      <c r="C1147" s="2"/>
-      <c r="D1147" s="2"/>
-      <c r="E1147" s="2"/>
+      <c r="B1165" s="2"/>
+      <c r="C1165" s="2"/>
+      <c r="D1165" s="2"/>
+      <c r="E1165" s="2"/>
+    </row>
+    <row r="1166" ht="21" customHeight="1">
+      <c r="A1166" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1166" s="2"/>
+      <c r="C1166" s="2"/>
+      <c r="D1166" s="2"/>
+      <c r="E1166" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="200">
+  <mergeCells count="204">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:D4"/>
@@ -14007,17 +14243,21 @@
     <mergeCell ref="A1122:A1139"/>
     <mergeCell ref="B1122:B1139"/>
     <mergeCell ref="C1122:C1139"/>
-    <mergeCell ref="A1140:E1140"/>
-    <mergeCell ref="A1141:E1141"/>
-    <mergeCell ref="A1142:E1142"/>
-    <mergeCell ref="A1143:E1143"/>
-    <mergeCell ref="A1144:E1144"/>
-    <mergeCell ref="A1145:E1145"/>
-    <mergeCell ref="A1146:E1146"/>
-    <mergeCell ref="A1147:E1147"/>
+    <mergeCell ref="A1140:A1157"/>
+    <mergeCell ref="B1140:B1157"/>
+    <mergeCell ref="C1140:C1157"/>
+    <mergeCell ref="A1158:E1158"/>
+    <mergeCell ref="A1159:E1159"/>
+    <mergeCell ref="A1160:E1160"/>
+    <mergeCell ref="A1161:E1161"/>
+    <mergeCell ref="A1162:E1162"/>
+    <mergeCell ref="A1163:E1163"/>
+    <mergeCell ref="A1164:E1164"/>
+    <mergeCell ref="A1165:E1165"/>
+    <mergeCell ref="A1166:E1166"/>
   </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E1147"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E1166"/>
   </ignoredErrors>
 </worksheet>
 </file>